--- a/Annotations/New/GardensOfTheMoon.xlsx
+++ b/Annotations/New/GardensOfTheMoon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="gardensmoon" sheetId="1" r:id="rId1"/>
@@ -1841,15 +1841,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P304"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I301" sqref="I301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.33203125" style="2" customWidth="1"/>
@@ -1915,7 +1915,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.86903936486253053</v>
+        <v>0.34218454534767628</v>
       </c>
       <c r="B2" s="2">
         <v>400</v>
@@ -1942,7 +1942,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44310423954538458</v>
+        <v>0.66090858784007522</v>
       </c>
       <c r="B3" s="2">
         <v>338</v>
@@ -1966,7 +1966,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8170170604159579</v>
+        <v>0.35524835089661377</v>
       </c>
       <c r="B4" s="2">
         <v>242</v>
@@ -1993,7 +1993,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47076557959939358</v>
+        <v>0.98644209526228299</v>
       </c>
       <c r="B5" s="2">
         <v>332</v>
@@ -2017,7 +2017,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60036020671047641</v>
+        <v>0.70660165910195161</v>
       </c>
       <c r="B6" s="2">
         <v>272</v>
@@ -2044,7 +2044,7 @@
     <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89537063299058173</v>
+        <v>0.96799557822974969</v>
       </c>
       <c r="B7" s="2">
         <v>306</v>
@@ -2071,7 +2071,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93441397799289794</v>
+        <v>0.27540842811327759</v>
       </c>
       <c r="B8" s="2">
         <v>311</v>
@@ -2098,7 +2098,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22368995125089186</v>
+        <v>0.95778408358460188</v>
       </c>
       <c r="B9" s="2">
         <v>398</v>
@@ -2122,7 +2122,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42598284714830892</v>
+        <v>0.59869546686764108</v>
       </c>
       <c r="B10" s="2">
         <v>294</v>
@@ -2143,7 +2143,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23361680118380201</v>
+        <v>0.1128741516182391</v>
       </c>
       <c r="B11" s="2">
         <v>396</v>
@@ -2170,7 +2170,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12369479397030558</v>
+        <v>7.5101683904226335E-2</v>
       </c>
       <c r="B12" s="2">
         <v>349</v>
@@ -2191,7 +2191,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58527289773673907</v>
+        <v>6.8899411052543158E-2</v>
       </c>
       <c r="B13" s="2">
         <v>228</v>
@@ -2218,7 +2218,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56237989054135762</v>
+        <v>0.19311190439374215</v>
       </c>
       <c r="B14" s="2">
         <v>427</v>
@@ -2245,7 +2245,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45128469155720552</v>
+        <v>0.48647112098140177</v>
       </c>
       <c r="B15" s="2">
         <v>357</v>
@@ -2266,7 +2266,7 @@
     <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59570472481272219</v>
+        <v>0.64197124727427668</v>
       </c>
       <c r="B16" s="2">
         <v>288</v>
@@ -2290,7 +2290,7 @@
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7313602646014421</v>
+        <v>0.43144076302885692</v>
       </c>
       <c r="B17" s="2">
         <v>388</v>
@@ -2317,7 +2317,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63796923691371288</v>
+        <v>0.96061898146210734</v>
       </c>
       <c r="B18" s="2">
         <v>377</v>
@@ -2338,7 +2338,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19715475823210604</v>
+        <v>0.37102903252140296</v>
       </c>
       <c r="B19" s="2">
         <v>351</v>
@@ -2362,7 +2362,7 @@
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97943924245489167</v>
+        <v>0.77609152792192804</v>
       </c>
       <c r="B20" s="2">
         <v>453</v>
@@ -2386,7 +2386,7 @@
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54587066188445066</v>
+        <v>0.7082798613607314</v>
       </c>
       <c r="B21" s="2">
         <v>439</v>
@@ -2410,7 +2410,7 @@
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40627388689774935</v>
+        <v>0.29725877548983504</v>
       </c>
       <c r="B22" s="2">
         <v>363</v>
@@ -2431,7 +2431,7 @@
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27321368194770179</v>
+        <v>0.5536315439116275</v>
       </c>
       <c r="B23" s="2">
         <v>278</v>
@@ -2455,7 +2455,7 @@
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67372493433119651</v>
+        <v>0.23096730677731947</v>
       </c>
       <c r="B24" s="2">
         <v>207</v>
@@ -2479,7 +2479,7 @@
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3568609402819527</v>
+        <v>0.77945460346935236</v>
       </c>
       <c r="B25" s="2">
         <v>167</v>
@@ -2506,7 +2506,7 @@
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40937900736135469</v>
+        <v>0.86014627159026436</v>
       </c>
       <c r="B26" s="2">
         <v>200</v>
@@ -2530,7 +2530,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24248723260202643</v>
+        <v>0.52823439771178848</v>
       </c>
       <c r="B27" s="2">
         <v>187</v>
@@ -2554,7 +2554,7 @@
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89899405882185446</v>
+        <v>0.85288904018253886</v>
       </c>
       <c r="B28" s="2">
         <v>339</v>
@@ -2578,7 +2578,7 @@
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6478512375988198</v>
+        <v>0.92123167557618579</v>
       </c>
       <c r="B29" s="2">
         <v>383</v>
@@ -2605,7 +2605,7 @@
     <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45205205384993041</v>
+        <v>0.37232498853684248</v>
       </c>
       <c r="B30" s="2">
         <v>461</v>
@@ -2626,7 +2626,7 @@
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6348832770664075E-3</v>
+        <v>0.81379947480865944</v>
       </c>
       <c r="B31" s="2">
         <v>333</v>
@@ -2650,7 +2650,7 @@
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15597701139462317</v>
+        <v>0.66094802152035115</v>
       </c>
       <c r="B32" s="2">
         <v>224</v>
@@ -2671,7 +2671,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55301768638529047</v>
+        <v>7.0624172047192513E-2</v>
       </c>
       <c r="B33" s="2">
         <v>410</v>
@@ -2695,7 +2695,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77997568445868659</v>
+        <v>0.26400538608973112</v>
       </c>
       <c r="B34" s="2">
         <v>359</v>
@@ -2719,7 +2719,7 @@
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58065211263672578</v>
+        <v>0.40880192997078657</v>
       </c>
       <c r="B35" s="2">
         <v>193</v>
@@ -2743,7 +2743,7 @@
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5257173438388365</v>
+        <v>0.92738024676792385</v>
       </c>
       <c r="B36" s="2">
         <v>246</v>
@@ -2767,7 +2767,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67986168640224509</v>
+        <v>0.63944703439934092</v>
       </c>
       <c r="B37" s="2">
         <v>352</v>
@@ -2791,7 +2791,7 @@
     <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67169149005811968</v>
+        <v>0.85801433392522186</v>
       </c>
       <c r="B38" s="2">
         <v>285</v>
@@ -2812,7 +2812,7 @@
     <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24850399978764082</v>
+        <v>0.4491248945036328</v>
       </c>
       <c r="B39" s="2">
         <v>440</v>
@@ -2839,7 +2839,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49601966488011595</v>
+        <v>0.58426635236458757</v>
       </c>
       <c r="B40" s="2">
         <v>231</v>
@@ -2863,7 +2863,7 @@
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60073631468298105</v>
+        <v>0.88591302457511845</v>
       </c>
       <c r="B41" s="2">
         <v>375</v>
@@ -2887,7 +2887,7 @@
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4543089663742369</v>
+        <v>0.66170769822735998</v>
       </c>
       <c r="B42" s="2">
         <v>295</v>
@@ -2908,7 +2908,7 @@
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8806355467281487</v>
+        <v>0.69696853184917895</v>
       </c>
       <c r="B43" s="2">
         <v>446</v>
@@ -2932,7 +2932,7 @@
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48270341310784071</v>
+        <v>0.79874301547450421</v>
       </c>
       <c r="B44" s="2">
         <v>303</v>
@@ -2959,7 +2959,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46356835152972786</v>
+        <v>0.42669170981565951</v>
       </c>
       <c r="B45" s="2">
         <v>337</v>
@@ -2983,7 +2983,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99708716557744481</v>
+        <v>4.7465350063267131E-2</v>
       </c>
       <c r="B46" s="2">
         <v>232</v>
@@ -3007,7 +3007,7 @@
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43905494772643328</v>
+        <v>0.40720779509778615</v>
       </c>
       <c r="B47" s="2">
         <v>205</v>
@@ -3031,7 +3031,7 @@
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19419490716837851</v>
+        <v>0.89163224974940369</v>
       </c>
       <c r="B48" s="2">
         <v>350</v>
@@ -3061,7 +3061,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5418765131056404E-2</v>
+        <v>0.65598978780091666</v>
       </c>
       <c r="B49" s="2">
         <v>320</v>
@@ -3088,7 +3088,7 @@
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2893775508693777E-2</v>
+        <v>0.67796706435330012</v>
       </c>
       <c r="B50" s="2">
         <v>323</v>
@@ -3118,7 +3118,7 @@
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10847852776131583</v>
+        <v>0.26145328976134363</v>
       </c>
       <c r="B51" s="2">
         <v>408</v>
@@ -3142,7 +3142,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69279300386161891</v>
+        <v>0.24697963242846244</v>
       </c>
       <c r="B52" s="2">
         <v>257</v>
@@ -3166,7 +3166,7 @@
     <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7681945211270661</v>
+        <v>0.37132969364407209</v>
       </c>
       <c r="B53" s="2">
         <v>413</v>
@@ -3187,7 +3187,7 @@
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46893582893356944</v>
+        <v>0.22272270050717846</v>
       </c>
       <c r="B54" s="2">
         <v>425</v>
@@ -3211,7 +3211,7 @@
     <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7559918001461616E-2</v>
+        <v>0.91775255749182461</v>
       </c>
       <c r="B55" s="2">
         <v>417</v>
@@ -3241,7 +3241,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13448638314812844</v>
+        <v>0.75960051890243574</v>
       </c>
       <c r="B56" s="2">
         <v>391</v>
@@ -3265,7 +3265,7 @@
     <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90435670086739128</v>
+        <v>0.61285013146633205</v>
       </c>
       <c r="B57" s="2">
         <v>385</v>
@@ -3286,7 +3286,7 @@
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2399500084095888</v>
+        <v>0.83036955661623579</v>
       </c>
       <c r="B58" s="2">
         <v>402</v>
@@ -3310,7 +3310,7 @@
     <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78295233003495979</v>
+        <v>0.63726342268255509</v>
       </c>
       <c r="B59" s="2">
         <v>204</v>
@@ -3334,7 +3334,7 @@
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43296556432736999</v>
+        <v>0.57005974586408159</v>
       </c>
       <c r="B60" s="2">
         <v>343</v>
@@ -3355,7 +3355,7 @@
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0099223192372606E-2</v>
+        <v>0.23769099882669043</v>
       </c>
       <c r="B61" s="2">
         <v>317</v>
@@ -3376,7 +3376,7 @@
     <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5707168176553814</v>
+        <v>0.9678292262992827</v>
       </c>
       <c r="B62" s="2">
         <v>176</v>
@@ -3400,7 +3400,7 @@
     <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27444771670911972</v>
+        <v>0.29565498781752142</v>
       </c>
       <c r="B63" s="2">
         <v>208</v>
@@ -3424,7 +3424,7 @@
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84592707154336932</v>
+        <v>0.67670838954110013</v>
       </c>
       <c r="B64" s="2">
         <v>463</v>
@@ -3448,7 +3448,7 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3581206451186727</v>
+        <v>0.37682063325234161</v>
       </c>
       <c r="B65" s="2">
         <v>448</v>
@@ -3469,7 +3469,7 @@
     <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>4.5561014958051649E-2</v>
+        <v>4.6156665975323197E-2</v>
       </c>
       <c r="B66" s="2">
         <v>438</v>
@@ -3493,7 +3493,7 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52794247195981037</v>
+        <v>0.20660804780250419</v>
       </c>
       <c r="B67" s="2">
         <v>286</v>
@@ -3514,7 +3514,7 @@
     <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15918634872045212</v>
+        <v>0.88776097071333293</v>
       </c>
       <c r="B68" s="2">
         <v>358</v>
@@ -3538,7 +3538,7 @@
     <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34592026799510678</v>
+        <v>4.0814865555012569E-2</v>
       </c>
       <c r="B69" s="2">
         <v>302</v>
@@ -3562,7 +3562,7 @@
     <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3988938929320098E-2</v>
+        <v>0.85525541384088832</v>
       </c>
       <c r="B70" s="2">
         <v>255</v>
@@ -3586,7 +3586,7 @@
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17236509623918539</v>
+        <v>0.24049789588686343</v>
       </c>
       <c r="B71" s="2">
         <v>444</v>
@@ -3610,7 +3610,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81710509070960458</v>
+        <v>0.48752440939980579</v>
       </c>
       <c r="B72" s="2">
         <v>183</v>
@@ -3631,7 +3631,7 @@
     <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86228121277104453</v>
+        <v>0.72765717559944632</v>
       </c>
       <c r="B73" s="2">
         <v>265</v>
@@ -3655,7 +3655,7 @@
     <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66112697057139058</v>
+        <v>0.78540132482803571</v>
       </c>
       <c r="B74" s="2">
         <v>374</v>
@@ -3682,7 +3682,7 @@
     <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77027462708685435</v>
+        <v>6.3646254501582455E-2</v>
       </c>
       <c r="B75" s="2">
         <v>460</v>
@@ -3703,7 +3703,7 @@
     <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58869242282804923</v>
+        <v>0.80273625120718484</v>
       </c>
       <c r="B76" s="2">
         <v>430</v>
@@ -3730,7 +3730,7 @@
     <row r="77" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39262624485843045</v>
+        <v>0.17164763590980769</v>
       </c>
       <c r="B77" s="2">
         <v>289</v>
@@ -3751,7 +3751,7 @@
     <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33961275790750212</v>
+        <v>0.84289017336239036</v>
       </c>
       <c r="B78" s="2">
         <v>267</v>
@@ -3775,7 +3775,7 @@
     <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54356553618756032</v>
+        <v>0.41551333967955528</v>
       </c>
       <c r="B79" s="2">
         <v>304</v>
@@ -3805,7 +3805,7 @@
     <row r="80" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9116129723697356</v>
+        <v>0.76652572198122571</v>
       </c>
       <c r="B80" s="2">
         <v>194</v>
@@ -3832,7 +3832,7 @@
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8776368410031663</v>
+        <v>0.93327798406715501</v>
       </c>
       <c r="B81" s="2">
         <v>189</v>
@@ -3856,7 +3856,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66875426636001156</v>
+        <v>0.57468572227843351</v>
       </c>
       <c r="B82" s="2">
         <v>301</v>
@@ -3880,7 +3880,7 @@
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32228487187210353</v>
+        <v>0.92878475918571635</v>
       </c>
       <c r="B83" s="2">
         <v>261</v>
@@ -3907,7 +3907,7 @@
     <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81753285759908567</v>
+        <v>0.18170838515388821</v>
       </c>
       <c r="B84" s="2">
         <v>179</v>
@@ -3931,7 +3931,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87260689718693196</v>
+        <v>0.14266914445100587</v>
       </c>
       <c r="B85" s="2">
         <v>348</v>
@@ -3952,7 +3952,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87392121267176348</v>
+        <v>0.73790221084605945</v>
       </c>
       <c r="B86" s="2">
         <v>256</v>
@@ -3976,7 +3976,7 @@
     <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63879102378735653</v>
+        <v>1.0675012335290113E-2</v>
       </c>
       <c r="B87" s="2">
         <v>180</v>
@@ -4000,7 +4000,7 @@
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92505478093105209</v>
+        <v>0.76804435174185759</v>
       </c>
       <c r="B88" s="2">
         <v>435</v>
@@ -4024,7 +4024,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77095723544020345</v>
+        <v>0.15465382500917246</v>
       </c>
       <c r="B89" s="2">
         <v>407</v>
@@ -4051,7 +4051,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76002689229358511</v>
+        <v>0.13932469683877335</v>
       </c>
       <c r="B90" s="2">
         <v>309</v>
@@ -4075,7 +4075,7 @@
     <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52878280688682588</v>
+        <v>0.97958337978481835</v>
       </c>
       <c r="B91" s="2">
         <v>196</v>
@@ -4099,7 +4099,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66448690617403683</v>
+        <v>0.92590501074209031</v>
       </c>
       <c r="B92" s="2">
         <v>401</v>
@@ -4126,7 +4126,7 @@
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46330997358711234</v>
+        <v>0.21256302716544329</v>
       </c>
       <c r="B93" s="2">
         <v>406</v>
@@ -4147,7 +4147,7 @@
     <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16009111994595615</v>
+        <v>1.1338696369193824E-2</v>
       </c>
       <c r="B94" s="2">
         <v>271</v>
@@ -4174,7 +4174,7 @@
     <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28581500735502785</v>
+        <v>0.61761065757330091</v>
       </c>
       <c r="B95" s="2">
         <v>382</v>
@@ -4195,7 +4195,7 @@
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17728810915616999</v>
+        <v>0.95834684419220317</v>
       </c>
       <c r="B96" s="2">
         <v>273</v>
@@ -4222,7 +4222,7 @@
     <row r="97" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68211578696174713</v>
+        <v>2.66122184585601E-2</v>
       </c>
       <c r="B97" s="2">
         <v>166</v>
@@ -4246,7 +4246,7 @@
     <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39617507388380191</v>
+        <v>0.5719637155174746</v>
       </c>
       <c r="B98" s="2">
         <v>331</v>
@@ -4270,7 +4270,7 @@
     <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11638346286232104</v>
+        <v>0.13682966140540187</v>
       </c>
       <c r="B99" s="2">
         <v>269</v>
@@ -4294,7 +4294,7 @@
     <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21216034754726376</v>
+        <v>0.16937170445091621</v>
       </c>
       <c r="B100" s="2">
         <v>389</v>
@@ -4315,7 +4315,7 @@
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70841307134582099</v>
+        <v>4.2665886116970864E-2</v>
       </c>
       <c r="B101" s="2">
         <v>248</v>
@@ -4339,7 +4339,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65048651181083383</v>
+        <v>0.15817119043900574</v>
       </c>
       <c r="B102" s="2">
         <v>341</v>
@@ -4363,7 +4363,7 @@
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60522329324782009</v>
+        <v>0.95920648118906249</v>
       </c>
       <c r="B103" s="2">
         <v>212</v>
@@ -4384,7 +4384,7 @@
     <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27909716803575968</v>
+        <v>0.96729085673678705</v>
       </c>
       <c r="B104" s="2">
         <v>370</v>
@@ -4408,7 +4408,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16211144446294912</v>
+        <v>0.2896920475089535</v>
       </c>
       <c r="B105" s="2">
         <v>236</v>
@@ -4432,7 +4432,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9019862605461425</v>
+        <v>0.66452552235839824</v>
       </c>
       <c r="B106" s="2">
         <v>340</v>
@@ -4456,7 +4456,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8869940097259201E-2</v>
+        <v>0.12136447506284243</v>
       </c>
       <c r="B107" s="2">
         <v>259</v>
@@ -4480,7 +4480,7 @@
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52353754883724135</v>
+        <v>0.12204505858930759</v>
       </c>
       <c r="B108" s="2">
         <v>429</v>
@@ -4504,7 +4504,7 @@
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22155138974818744</v>
+        <v>0.19153903457188171</v>
       </c>
       <c r="B109" s="2">
         <v>436</v>
@@ -4531,7 +4531,7 @@
     <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95760609866627544</v>
+        <v>0.76796974931289197</v>
       </c>
       <c r="B110" s="2">
         <v>276</v>
@@ -4552,7 +4552,7 @@
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43694816073435494</v>
+        <v>0.57788725715111633</v>
       </c>
       <c r="B111" s="2">
         <v>240</v>
@@ -4576,7 +4576,7 @@
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36899906117431547</v>
+        <v>0.46803905786515976</v>
       </c>
       <c r="B112" s="2">
         <v>291</v>
@@ -4600,7 +4600,7 @@
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86621362477437314</v>
+        <v>0.15642236171432089</v>
       </c>
       <c r="B113" s="2">
         <v>445</v>
@@ -4624,7 +4624,7 @@
     <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74601141967423912</v>
+        <v>0.43270426035181797</v>
       </c>
       <c r="B114" s="2">
         <v>361</v>
@@ -4651,7 +4651,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12440916452729844</v>
+        <v>0.93923882544380444</v>
       </c>
       <c r="B115" s="2">
         <v>211</v>
@@ -4672,7 +4672,7 @@
     <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73514040216516452</v>
+        <v>0.12110981921192499</v>
       </c>
       <c r="B116" s="2">
         <v>222</v>
@@ -4696,7 +4696,7 @@
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80780773363144409</v>
+        <v>0.18159659709115794</v>
       </c>
       <c r="B117" s="2">
         <v>421</v>
@@ -4717,7 +4717,7 @@
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7173980118758595</v>
+        <v>0.3654285804999392</v>
       </c>
       <c r="B118" s="2">
         <v>431</v>
@@ -4741,7 +4741,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9986758941019831</v>
+        <v>0.52770821575225035</v>
       </c>
       <c r="B119" s="2">
         <v>184</v>
@@ -4765,7 +4765,7 @@
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88877252471275592</v>
+        <v>0.75491834921669676</v>
       </c>
       <c r="B120" s="2">
         <v>281</v>
@@ -4786,7 +4786,7 @@
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16306746129077121</v>
+        <v>0.65052433983031799</v>
       </c>
       <c r="B121" s="2">
         <v>214</v>
@@ -4810,7 +4810,7 @@
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48209227864089443</v>
+        <v>2.8488585301526537E-2</v>
       </c>
       <c r="B122" s="2">
         <v>233</v>
@@ -4831,7 +4831,7 @@
     <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91550274152244637</v>
+        <v>0.12914521155850767</v>
       </c>
       <c r="B123" s="2">
         <v>190</v>
@@ -4855,7 +4855,7 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97194666491234638</v>
+        <v>0.98869834383419619</v>
       </c>
       <c r="B124" s="2">
         <v>393</v>
@@ -4876,7 +4876,7 @@
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85440707180095077</v>
+        <v>0.70989999270843684</v>
       </c>
       <c r="B125" s="2">
         <v>424</v>
@@ -4903,7 +4903,7 @@
     <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23091452212140162</v>
+        <v>0.12155653482293605</v>
       </c>
       <c r="B126" s="2">
         <v>223</v>
@@ -4924,7 +4924,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45997563895617222</v>
+        <v>0.18110472096329511</v>
       </c>
       <c r="B127" s="2">
         <v>419</v>
@@ -4948,7 +4948,7 @@
     <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60417991425839923</v>
+        <v>5.7426000008014344E-2</v>
       </c>
       <c r="B128" s="2">
         <v>280</v>
@@ -4972,7 +4972,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51864579743732309</v>
+        <v>0.9681995769304208</v>
       </c>
       <c r="B129" s="2">
         <v>355</v>
@@ -4993,7 +4993,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.86839692148243586</v>
+        <v>0.62531541318518136</v>
       </c>
       <c r="B130" s="2">
         <v>354</v>
@@ -5014,7 +5014,7 @@
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69248522577096017</v>
+        <v>0.44219716341300108</v>
       </c>
       <c r="B131" s="2">
         <v>318</v>
@@ -5038,7 +5038,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83006181019209324</v>
+        <v>0.16045228169916304</v>
       </c>
       <c r="B132" s="2">
         <v>447</v>
@@ -5062,7 +5062,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37747632840452738</v>
+        <v>0.80022071465539746</v>
       </c>
       <c r="B133" s="2">
         <v>344</v>
@@ -5086,7 +5086,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36500173420130755</v>
+        <v>0.6151399275232291</v>
       </c>
       <c r="B134" s="2">
         <v>201</v>
@@ -5110,7 +5110,7 @@
     <row r="135" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37868557413612391</v>
+        <v>0.50736566435954999</v>
       </c>
       <c r="B135" s="2">
         <v>262</v>
@@ -5134,7 +5134,7 @@
     <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42492463309982198</v>
+        <v>0.51711941789221105</v>
       </c>
       <c r="B136" s="2">
         <v>170</v>
@@ -5158,7 +5158,7 @@
     <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80996881777041108</v>
+        <v>0.10866044836645117</v>
       </c>
       <c r="B137" s="2">
         <v>191</v>
@@ -5179,7 +5179,7 @@
     <row r="138" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17074313874649361</v>
+        <v>0.13160044985468344</v>
       </c>
       <c r="B138" s="2">
         <v>254</v>
@@ -5203,7 +5203,7 @@
     <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87468103768578243</v>
+        <v>0.29729611058998595</v>
       </c>
       <c r="B139" s="2">
         <v>418</v>
@@ -5227,7 +5227,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55208057968892632</v>
+        <v>0.5610301960288272</v>
       </c>
       <c r="B140" s="2">
         <v>210</v>
@@ -5248,7 +5248,7 @@
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92480948292052512</v>
+        <v>0.33868571570210293</v>
       </c>
       <c r="B141" s="2">
         <v>195</v>
@@ -5275,7 +5275,7 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96796688451037716</v>
+        <v>0.67116679375777333</v>
       </c>
       <c r="B142" s="2">
         <v>290</v>
@@ -5296,7 +5296,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62148675685783095</v>
+        <v>0.27306971275610203</v>
       </c>
       <c r="B143" s="2">
         <v>235</v>
@@ -5323,7 +5323,7 @@
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6884287299612275E-3</v>
+        <v>0.23130209344480501</v>
       </c>
       <c r="B144" s="2">
         <v>213</v>
@@ -5347,7 +5347,7 @@
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26776343178576822</v>
+        <v>3.262868057146473E-2</v>
       </c>
       <c r="B145" s="2">
         <v>316</v>
@@ -5374,7 +5374,7 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85169219094774273</v>
+        <v>0.79934131391556629</v>
       </c>
       <c r="B146" s="2">
         <v>197</v>
@@ -5398,7 +5398,7 @@
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6336070795379416E-2</v>
+        <v>0.44088127464567162</v>
       </c>
       <c r="B147" s="2">
         <v>450</v>
@@ -5422,7 +5422,7 @@
     <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49296936855349305</v>
+        <v>0.89407881160507829</v>
       </c>
       <c r="B148" s="2">
         <v>220</v>
@@ -5446,7 +5446,7 @@
     <row r="149" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12314642745485038</v>
+        <v>0.93200541962420802</v>
       </c>
       <c r="B149" s="2">
         <v>168</v>
@@ -5470,7 +5470,7 @@
     <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38584899136701412</v>
+        <v>0.88398439896951586</v>
       </c>
       <c r="B150" s="2">
         <v>346</v>
@@ -5494,7 +5494,7 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63401090307635555</v>
+        <v>0.6092358371216211</v>
       </c>
       <c r="B151" s="2">
         <v>334</v>
@@ -5518,7 +5518,7 @@
     <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40369258024200005</v>
+        <v>0.53144064265228974</v>
       </c>
       <c r="B152" s="2">
         <v>416</v>
@@ -5539,7 +5539,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52429578280249856</v>
+        <v>0.66350982974061146</v>
       </c>
       <c r="B153" s="2">
         <v>405</v>
@@ -5563,7 +5563,7 @@
     <row r="154" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2895286931359311</v>
+        <v>7.9565710701324344E-2</v>
       </c>
       <c r="B154" s="2">
         <v>368</v>
@@ -5590,7 +5590,7 @@
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2728887827148887</v>
+        <v>0.302353724597753</v>
       </c>
       <c r="B155" s="2">
         <v>260</v>
@@ -5614,7 +5614,7 @@
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15216027184107794</v>
+        <v>0.19101609179381396</v>
       </c>
       <c r="B156" s="2">
         <v>284</v>
@@ -5638,7 +5638,7 @@
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18804090434887522</v>
+        <v>0.37589914875457353</v>
       </c>
       <c r="B157" s="2">
         <v>182</v>
@@ -5662,7 +5662,7 @@
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69297293063746768</v>
+        <v>0.54460691483635937</v>
       </c>
       <c r="B158" s="2">
         <v>362</v>
@@ -5686,7 +5686,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57714903563551045</v>
+        <v>0.11103307315085764</v>
       </c>
       <c r="B159" s="2">
         <v>188</v>
@@ -5707,7 +5707,7 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7156917601712991</v>
+        <v>0.56011367865473238</v>
       </c>
       <c r="B160" s="2">
         <v>173</v>
@@ -5731,7 +5731,7 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29207368410908574</v>
+        <v>0.57032938434770175</v>
       </c>
       <c r="B161" s="2">
         <v>198</v>
@@ -5755,7 +5755,7 @@
     <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55429431887934144</v>
+        <v>0.31625007233323732</v>
       </c>
       <c r="B162" s="2">
         <v>238</v>
@@ -5782,7 +5782,7 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2418088523030573E-2</v>
+        <v>0.28686840331006525</v>
       </c>
       <c r="B163" s="2">
         <v>356</v>
@@ -5806,7 +5806,7 @@
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11671977181026838</v>
+        <v>0.50980289018666736</v>
       </c>
       <c r="B164" s="2">
         <v>372</v>
@@ -5827,7 +5827,7 @@
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30189528655494846</v>
+        <v>0.14761539073124419</v>
       </c>
       <c r="B165" s="2">
         <v>324</v>
@@ -5851,7 +5851,7 @@
     <row r="166" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44978056711749703</v>
+        <v>0.25865647731718533</v>
       </c>
       <c r="B166" s="2">
         <v>178</v>
@@ -5875,7 +5875,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5661622757691982</v>
+        <v>0.25230561246894356</v>
       </c>
       <c r="B167" s="2">
         <v>342</v>
@@ -5899,7 +5899,7 @@
     <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98293868592598244</v>
+        <v>0.44032135818592255</v>
       </c>
       <c r="B168" s="2">
         <v>458</v>
@@ -5926,7 +5926,7 @@
     <row r="169" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88478448523632702</v>
+        <v>0.92650229161771314</v>
       </c>
       <c r="B169" s="2">
         <v>345</v>
@@ -5950,7 +5950,7 @@
     <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3328572887926167E-2</v>
+        <v>0.11498295049716101</v>
       </c>
       <c r="B170" s="2">
         <v>217</v>
@@ -5971,7 +5971,7 @@
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65729735399645672</v>
+        <v>0.87045630230396653</v>
       </c>
       <c r="B171" s="2">
         <v>313</v>
@@ -5995,7 +5995,7 @@
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53534991156023826</v>
+        <v>0.32570142037667571</v>
       </c>
       <c r="B172" s="2">
         <v>275</v>
@@ -6019,7 +6019,7 @@
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32762074743249781</v>
+        <v>2.2928733683448832E-2</v>
       </c>
       <c r="B173" s="2">
         <v>437</v>
@@ -6043,7 +6043,7 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27099951529404576</v>
+        <v>0.31218031326250617</v>
       </c>
       <c r="B174" s="2">
         <v>325</v>
@@ -6067,7 +6067,7 @@
     <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68475535537372623</v>
+        <v>0.92499389985908864</v>
       </c>
       <c r="B175" s="2">
         <v>241</v>
@@ -6088,7 +6088,7 @@
     <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35247217927919938</v>
+        <v>3.5560463281952948E-2</v>
       </c>
       <c r="B176" s="2">
         <v>199</v>
@@ -6112,7 +6112,7 @@
     <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99473631729585077</v>
+        <v>0.76495429210660526</v>
       </c>
       <c r="B177" s="2">
         <v>367</v>
@@ -6136,7 +6136,7 @@
     <row r="178" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.247335592331548</v>
+        <v>0.78872614580621048</v>
       </c>
       <c r="B178" s="2">
         <v>215</v>
@@ -6157,7 +6157,7 @@
     <row r="179" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64612298148672442</v>
+        <v>0.56151883724707119</v>
       </c>
       <c r="B179" s="2">
         <v>264</v>
@@ -6181,7 +6181,7 @@
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94062835307083126</v>
+        <v>0.44595989002246506</v>
       </c>
       <c r="B180" s="2">
         <v>381</v>
@@ -6205,7 +6205,7 @@
     <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36304714781006742</v>
+        <v>0.48522386124190198</v>
       </c>
       <c r="B181" s="2">
         <v>169</v>
@@ -6229,7 +6229,7 @@
     <row r="182" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14351231029837075</v>
+        <v>0.81343004508667682</v>
       </c>
       <c r="B182" s="2">
         <v>386</v>
@@ -6259,7 +6259,7 @@
     <row r="183" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14780703669122552</v>
+        <v>0.40175258278653225</v>
       </c>
       <c r="B183" s="2">
         <v>452</v>
@@ -6283,7 +6283,7 @@
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59372600012005705</v>
+        <v>0.38208828433552078</v>
       </c>
       <c r="B184" s="2">
         <v>394</v>
@@ -6307,7 +6307,7 @@
     <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82357152835019132</v>
+        <v>0.69639652487975834</v>
       </c>
       <c r="B185" s="2">
         <v>172</v>
@@ -6328,7 +6328,7 @@
     <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1255658717786331</v>
+        <v>0.81156338780055293</v>
       </c>
       <c r="B186" s="2">
         <v>202</v>
@@ -6355,7 +6355,7 @@
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64539167933050368</v>
+        <v>0.63983288650111247</v>
       </c>
       <c r="B187" s="2">
         <v>390</v>
@@ -6379,7 +6379,7 @@
     <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94771818075770664</v>
+        <v>0.88675170424895533</v>
       </c>
       <c r="B188" s="2">
         <v>312</v>
@@ -6400,7 +6400,7 @@
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76589339566912429</v>
+        <v>0.5171467958032816</v>
       </c>
       <c r="B189" s="2">
         <v>225</v>
@@ -6424,7 +6424,7 @@
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30310842042971042</v>
+        <v>0.209136943592233</v>
       </c>
       <c r="B190" s="2">
         <v>298</v>
@@ -6448,7 +6448,7 @@
     <row r="191" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28869257898886624</v>
+        <v>0.7816050181078491</v>
       </c>
       <c r="B191" s="2">
         <v>283</v>
@@ -6472,7 +6472,7 @@
     <row r="192" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49719858734415745</v>
+        <v>0.85451549323639187</v>
       </c>
       <c r="B192" s="2">
         <v>206</v>
@@ -6499,7 +6499,7 @@
     <row r="193" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43405396047124378</v>
+        <v>0.60140341717677037</v>
       </c>
       <c r="B193" s="2">
         <v>282</v>
@@ -6523,7 +6523,7 @@
     <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.99679448537864568</v>
+        <v>8.9873264772221906E-2</v>
       </c>
       <c r="B194" s="2">
         <v>387</v>
@@ -6547,7 +6547,7 @@
     <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24119042832027449</v>
+        <v>0.39622573469557143</v>
       </c>
       <c r="B195" s="2">
         <v>433</v>
@@ -6571,7 +6571,7 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17594473529101151</v>
+        <v>0.42949078648662287</v>
       </c>
       <c r="B196" s="2">
         <v>329</v>
@@ -6595,7 +6595,7 @@
     <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23471818313942361</v>
+        <v>0.81819102806794486</v>
       </c>
       <c r="B197" s="2">
         <v>253</v>
@@ -6619,7 +6619,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28195688181628487</v>
+        <v>0.17012072687758806</v>
       </c>
       <c r="B198" s="2">
         <v>245</v>
@@ -6646,7 +6646,7 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38870049144210583</v>
+        <v>0.59523277231045901</v>
       </c>
       <c r="B199" s="2">
         <v>335</v>
@@ -6670,7 +6670,7 @@
     <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88096929836962601</v>
+        <v>1.468086108895994E-2</v>
       </c>
       <c r="B200" s="2">
         <v>266</v>
@@ -6697,7 +6697,7 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85019332288974103</v>
+        <v>0.75565713698280923</v>
       </c>
       <c r="B201" s="2">
         <v>300</v>
@@ -6718,7 +6718,7 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22294394008797414</v>
+        <v>4.2382858851664373E-2</v>
       </c>
       <c r="B202" s="2">
         <v>353</v>
@@ -6742,7 +6742,7 @@
     <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45918555061891209</v>
+        <v>0.41367924768884823</v>
       </c>
       <c r="B203" s="2">
         <v>384</v>
@@ -6763,7 +6763,7 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40039570262389779</v>
+        <v>0.83092975107024425</v>
       </c>
       <c r="B204" s="2">
         <v>209</v>
@@ -6790,7 +6790,7 @@
     <row r="205" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44234540067667238</v>
+        <v>0.87823519899074931</v>
       </c>
       <c r="B205" s="2">
         <v>263</v>
@@ -6817,7 +6817,7 @@
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83577236471724392</v>
+        <v>0.69649969581769167</v>
       </c>
       <c r="B206" s="2">
         <v>432</v>
@@ -6844,7 +6844,7 @@
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95360085448381904</v>
+        <v>0.44383777583549666</v>
       </c>
       <c r="B207" s="2">
         <v>175</v>
@@ -6871,7 +6871,7 @@
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22031505647345706</v>
+        <v>0.70995248271357236</v>
       </c>
       <c r="B208" s="2">
         <v>307</v>
@@ -6895,7 +6895,7 @@
     <row r="209" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55256947886819618</v>
+        <v>0.63051219074400622</v>
       </c>
       <c r="B209" s="2">
         <v>192</v>
@@ -6916,7 +6916,7 @@
     <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0880309907461045E-2</v>
+        <v>0.90611046875936907</v>
       </c>
       <c r="B210" s="2">
         <v>454</v>
@@ -6940,7 +6940,7 @@
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57910337779400733</v>
+        <v>0.58120404865742781</v>
       </c>
       <c r="B211" s="2">
         <v>366</v>
@@ -6967,7 +6967,7 @@
     <row r="212" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28131838069525339</v>
+        <v>0.72580958236227888</v>
       </c>
       <c r="B212" s="2">
         <v>371</v>
@@ -6991,7 +6991,7 @@
     <row r="213" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59744787567982893</v>
+        <v>0.98501691620855314</v>
       </c>
       <c r="B213" s="2">
         <v>428</v>
@@ -7015,7 +7015,7 @@
     <row r="214" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53595061384147769</v>
+        <v>0.60413683790044059</v>
       </c>
       <c r="B214" s="2">
         <v>287</v>
@@ -7036,7 +7036,7 @@
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75186358163640898</v>
+        <v>0.74095487933410964</v>
       </c>
       <c r="B215" s="2">
         <v>376</v>
@@ -7060,7 +7060,7 @@
     <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68968739010851943</v>
+        <v>0.94365064035699575</v>
       </c>
       <c r="B216" s="2">
         <v>414</v>
@@ -7081,7 +7081,7 @@
     <row r="217" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66293295911340744</v>
+        <v>0.18759232360171851</v>
       </c>
       <c r="B217" s="2">
         <v>296</v>
@@ -7105,7 +7105,7 @@
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73554113837530588</v>
+        <v>0.86525892976860996</v>
       </c>
       <c r="B218" s="2">
         <v>336</v>
@@ -7126,7 +7126,7 @@
     <row r="219" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82960037072056958</v>
+        <v>0.33636648338059805</v>
       </c>
       <c r="B219" s="2">
         <v>422</v>
@@ -7150,7 +7150,7 @@
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2211292969553291E-2</v>
+        <v>0.16956970717882913</v>
       </c>
       <c r="B220" s="2">
         <v>244</v>
@@ -7177,7 +7177,7 @@
     <row r="221" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42914303741250648</v>
+        <v>0.60784347638194391</v>
       </c>
       <c r="B221" s="2">
         <v>305</v>
@@ -7207,7 +7207,7 @@
     <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97968978826161401</v>
+        <v>0.54962483776220672</v>
       </c>
       <c r="B222" s="2">
         <v>218</v>
@@ -7231,7 +7231,7 @@
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61536711453711423</v>
+        <v>7.2767603316379437E-2</v>
       </c>
       <c r="B223" s="2">
         <v>319</v>
@@ -7255,7 +7255,7 @@
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83921001669808382</v>
+        <v>0.21677877479828633</v>
       </c>
       <c r="B224" s="2">
         <v>409</v>
@@ -7279,7 +7279,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4407043761968904</v>
+        <v>0.30396932472775551</v>
       </c>
       <c r="B225" s="2">
         <v>243</v>
@@ -7306,7 +7306,7 @@
     <row r="226" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37275378426419448</v>
+        <v>0.65969208589766071</v>
       </c>
       <c r="B226" s="2">
         <v>177</v>
@@ -7333,7 +7333,7 @@
     <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25901921181030907</v>
+        <v>0.64965784142749017</v>
       </c>
       <c r="B227" s="2">
         <v>397</v>
@@ -7357,7 +7357,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14543609207179697</v>
+        <v>0.49920647482103009</v>
       </c>
       <c r="B228" s="2">
         <v>321</v>
@@ -7378,7 +7378,7 @@
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44524011945035835</v>
+        <v>0.55610080701948938</v>
       </c>
       <c r="B229" s="2">
         <v>186</v>
@@ -7399,7 +7399,7 @@
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18412850905328748</v>
+        <v>0.83955818887483347</v>
       </c>
       <c r="B230" s="2">
         <v>237</v>
@@ -7423,7 +7423,7 @@
     <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51873803061668466</v>
+        <v>0.58736134914290383</v>
       </c>
       <c r="B231" s="2">
         <v>322</v>
@@ -7447,7 +7447,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95662053466810659</v>
+        <v>0.81038042069184102</v>
       </c>
       <c r="B232" s="2">
         <v>426</v>
@@ -7468,7 +7468,7 @@
     <row r="233" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5946944422334601E-2</v>
+        <v>0.44385558052548624</v>
       </c>
       <c r="B233" s="2">
         <v>310</v>
@@ -7492,7 +7492,7 @@
     <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48108553792374298</v>
+        <v>0.20089685613484976</v>
       </c>
       <c r="B234" s="2">
         <v>457</v>
@@ -7519,7 +7519,7 @@
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1288216234030366E-2</v>
+        <v>0.10556062781566011</v>
       </c>
       <c r="B235" s="2">
         <v>297</v>
@@ -7543,7 +7543,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70968418146428847</v>
+        <v>0.89775290885309655</v>
       </c>
       <c r="B236" s="2">
         <v>258</v>
@@ -7570,7 +7570,7 @@
     <row r="237" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59341148013460088</v>
+        <v>0.78557159744573579</v>
       </c>
       <c r="B237" s="2">
         <v>415</v>
@@ -7597,7 +7597,7 @@
     <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97192070398576935</v>
+        <v>0.59839176121024251</v>
       </c>
       <c r="B238" s="2">
         <v>360</v>
@@ -7621,7 +7621,7 @@
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38190589402967445</v>
+        <v>0.14009010534940813</v>
       </c>
       <c r="B239" s="2">
         <v>404</v>
@@ -7645,7 +7645,7 @@
     <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13779031072143544</v>
+        <v>0.45288122167160905</v>
       </c>
       <c r="B240" s="2">
         <v>442</v>
@@ -7666,7 +7666,7 @@
     <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84887286195213352</v>
+        <v>8.7814486695402261E-2</v>
       </c>
       <c r="B241" s="2">
         <v>239</v>
@@ -7690,7 +7690,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36760381223221172</v>
+        <v>0.11465953994574685</v>
       </c>
       <c r="B242" s="2">
         <v>174</v>
@@ -7714,7 +7714,7 @@
     <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91666017071699968</v>
+        <v>0.91694759201028531</v>
       </c>
       <c r="B243" s="2">
         <v>403</v>
@@ -7738,7 +7738,7 @@
     <row r="244" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.715572838976013E-2</v>
+        <v>0.78710712755862444</v>
       </c>
       <c r="B244" s="2">
         <v>249</v>
@@ -7762,7 +7762,7 @@
     <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56448566930058219</v>
+        <v>0.88843923442063044</v>
       </c>
       <c r="B245" s="2">
         <v>292</v>
@@ -7789,7 +7789,7 @@
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68742831803361537</v>
+        <v>0.10872747376204606</v>
       </c>
       <c r="B246" s="2">
         <v>373</v>
@@ -7810,7 +7810,7 @@
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26669658179188083</v>
+        <v>0.23031329350871765</v>
       </c>
       <c r="B247" s="2">
         <v>441</v>
@@ -7834,7 +7834,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0577881362164576E-2</v>
+        <v>0.49832697236622225</v>
       </c>
       <c r="B248" s="2">
         <v>326</v>
@@ -7855,7 +7855,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14504514154051129</v>
+        <v>0.2639277617167316</v>
       </c>
       <c r="B249" s="2">
         <v>420</v>
@@ -7879,7 +7879,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74862618588390972</v>
+        <v>0.37795422925125577</v>
       </c>
       <c r="B250" s="2">
         <v>455</v>
@@ -7903,7 +7903,7 @@
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61988249378094162</v>
+        <v>1.5295303078238343E-2</v>
       </c>
       <c r="B251" s="2">
         <v>464</v>
@@ -7927,7 +7927,7 @@
     <row r="252" spans="1:8" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25497795595216943</v>
+        <v>0.68329488057512322</v>
       </c>
       <c r="B252" s="2">
         <v>165</v>
@@ -7951,7 +7951,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8783609356795017E-3</v>
+        <v>1.3830566830506319E-2</v>
       </c>
       <c r="B253" s="2">
         <v>234</v>
@@ -7975,7 +7975,7 @@
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14618297260530755</v>
+        <v>0.16914480255023689</v>
       </c>
       <c r="B254" s="2">
         <v>380</v>
@@ -7996,7 +7996,7 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20890903435556485</v>
+        <v>5.3403552125524612E-2</v>
       </c>
       <c r="B255" s="2">
         <v>251</v>
@@ -8017,7 +8017,7 @@
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8382296192864227</v>
+        <v>0.15922017420291568</v>
       </c>
       <c r="B256" s="2">
         <v>219</v>
@@ -8044,7 +8044,7 @@
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77764745694397674</v>
+        <v>0.73619116235548687</v>
       </c>
       <c r="B257" s="2">
         <v>443</v>
@@ -8065,7 +8065,7 @@
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A304" ca="1" si="4">RAND()</f>
-        <v>0.70248686332001387</v>
+        <v>7.0970035024038314E-3</v>
       </c>
       <c r="B258" s="2">
         <v>379</v>
@@ -8092,7 +8092,7 @@
     <row r="259" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28674982028008722</v>
+        <v>0.15375852110518839</v>
       </c>
       <c r="B259" s="2">
         <v>465</v>
@@ -8113,7 +8113,7 @@
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64470270401410146</v>
+        <v>0.9975778942191883</v>
       </c>
       <c r="B260" s="2">
         <v>449</v>
@@ -8137,7 +8137,7 @@
     <row r="261" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83786770008434786</v>
+        <v>0.36756237913741807</v>
       </c>
       <c r="B261" s="2">
         <v>185</v>
@@ -8158,7 +8158,7 @@
     <row r="262" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4543959784468794</v>
+        <v>0.48104280967743485</v>
       </c>
       <c r="B262" s="2">
         <v>434</v>
@@ -8182,7 +8182,7 @@
     <row r="263" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5804143343832644</v>
+        <v>0.88360229971388438</v>
       </c>
       <c r="B263" s="2">
         <v>268</v>
@@ -8209,7 +8209,7 @@
     <row r="264" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75645907217260622</v>
+        <v>0.67957248708900353</v>
       </c>
       <c r="B264" s="2">
         <v>314</v>
@@ -8236,7 +8236,7 @@
     <row r="265" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3315405889344949</v>
+        <v>0.45670866671467658</v>
       </c>
       <c r="B265" s="2">
         <v>277</v>
@@ -8260,7 +8260,7 @@
     <row r="266" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59612896010541694</v>
+        <v>0.18986059540856115</v>
       </c>
       <c r="B266" s="2">
         <v>347</v>
@@ -8287,7 +8287,7 @@
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82291882878971945</v>
+        <v>8.6411189611347083E-2</v>
       </c>
       <c r="B267" s="2">
         <v>250</v>
@@ -8308,7 +8308,7 @@
     <row r="268" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90637227853586133</v>
+        <v>0.72079443074481908</v>
       </c>
       <c r="B268" s="2">
         <v>229</v>
@@ -8329,7 +8329,7 @@
     <row r="269" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48079060585127342</v>
+        <v>0.18835030377386242</v>
       </c>
       <c r="B269" s="2">
         <v>459</v>
@@ -8350,7 +8350,7 @@
     <row r="270" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59223025953977937</v>
+        <v>0.49147971288475234</v>
       </c>
       <c r="B270" s="2">
         <v>227</v>
@@ -8377,7 +8377,7 @@
     <row r="271" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51276485841575681</v>
+        <v>0.17048012280390834</v>
       </c>
       <c r="B271" s="2">
         <v>252</v>
@@ -8407,7 +8407,7 @@
     <row r="272" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17433649966194031</v>
+        <v>0.66981682924229891</v>
       </c>
       <c r="B272" s="2">
         <v>456</v>
@@ -8431,7 +8431,7 @@
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45844908770268444</v>
+        <v>0.89795047721214016</v>
       </c>
       <c r="B273" s="2">
         <v>308</v>
@@ -8455,7 +8455,7 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46378386844808472</v>
+        <v>0.10343637136443717</v>
       </c>
       <c r="B274" s="2">
         <v>226</v>
@@ -8482,7 +8482,7 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50449314113492683</v>
+        <v>0.6408140454620066</v>
       </c>
       <c r="B275" s="2">
         <v>365</v>
@@ -8509,7 +8509,7 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7151416026940294E-2</v>
+        <v>0.62087590800192882</v>
       </c>
       <c r="B276" s="2">
         <v>392</v>
@@ -8533,7 +8533,7 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87305955975154848</v>
+        <v>0.51776953357396871</v>
       </c>
       <c r="B277" s="2">
         <v>399</v>
@@ -8557,7 +8557,7 @@
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63885415599367823</v>
+        <v>5.1919183155123227E-2</v>
       </c>
       <c r="B278" s="2">
         <v>364</v>
@@ -8578,7 +8578,7 @@
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47427397505310942</v>
+        <v>0.37557542786836073</v>
       </c>
       <c r="B279" s="2">
         <v>423</v>
@@ -8602,7 +8602,7 @@
     <row r="280" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56324133564957879</v>
+        <v>0.79634174900980426</v>
       </c>
       <c r="B280" s="2">
         <v>164</v>
@@ -8629,7 +8629,7 @@
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49873232383105703</v>
+        <v>0.30807475311201804</v>
       </c>
       <c r="B281" s="2">
         <v>411</v>
@@ -8653,7 +8653,7 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90234481627516194</v>
+        <v>0.23654129981855254</v>
       </c>
       <c r="B282" s="2">
         <v>299</v>
@@ -8680,7 +8680,7 @@
     <row r="283" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54167597486358654</v>
+        <v>0.94803157140374805</v>
       </c>
       <c r="B283" s="2">
         <v>274</v>
@@ -8704,7 +8704,7 @@
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34631050884302328</v>
+        <v>0.18488341892018134</v>
       </c>
       <c r="B284" s="2">
         <v>378</v>
@@ -8728,7 +8728,7 @@
     <row r="285" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71773623859185776</v>
+        <v>0.28401178983321174</v>
       </c>
       <c r="B285" s="2">
         <v>270</v>
@@ -8755,7 +8755,7 @@
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27209266117583109</v>
+        <v>2.9948317481631737E-3</v>
       </c>
       <c r="B286" s="2">
         <v>412</v>
@@ -8779,7 +8779,7 @@
     <row r="287" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86602150452015136</v>
+        <v>0.86325286049364824</v>
       </c>
       <c r="B287" s="2">
         <v>462</v>
@@ -8800,7 +8800,7 @@
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82188384363118894</v>
+        <v>0.143063383717145</v>
       </c>
       <c r="B288" s="2">
         <v>221</v>
@@ -8824,7 +8824,7 @@
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3474770424726583E-2</v>
+        <v>0.17574212486609819</v>
       </c>
       <c r="B289" s="2">
         <v>279</v>
@@ -8845,7 +8845,7 @@
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34306490733973294</v>
+        <v>0.64965651909428468</v>
       </c>
       <c r="B290" s="2">
         <v>327</v>
@@ -8866,7 +8866,7 @@
     <row r="291" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16325437598428749</v>
+        <v>6.2785260792509789E-2</v>
       </c>
       <c r="B291" s="2">
         <v>369</v>
@@ -8890,7 +8890,7 @@
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9356562428049745</v>
+        <v>3.2145727661976098E-2</v>
       </c>
       <c r="B292" s="2">
         <v>230</v>
@@ -8914,7 +8914,7 @@
     <row r="293" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8881378177971566E-2</v>
+        <v>3.8747265984433565E-2</v>
       </c>
       <c r="B293" s="2">
         <v>466</v>
@@ -8938,7 +8938,7 @@
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63174755994036136</v>
+        <v>0.78713608817917424</v>
       </c>
       <c r="B294" s="2">
         <v>315</v>
@@ -8962,7 +8962,7 @@
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28125460862527241</v>
+        <v>0.72202948042340498</v>
       </c>
       <c r="B295" s="2">
         <v>203</v>
@@ -8989,7 +8989,7 @@
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36541463585369116</v>
+        <v>0.28571303686637717</v>
       </c>
       <c r="B296" s="2">
         <v>395</v>
@@ -9016,7 +9016,7 @@
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93148738376634121</v>
+        <v>0.14848394366963391</v>
       </c>
       <c r="B297" s="2">
         <v>181</v>
@@ -9037,7 +9037,7 @@
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.758609716988636</v>
+        <v>0.14178102237060497</v>
       </c>
       <c r="B298" s="2">
         <v>328</v>
@@ -9061,7 +9061,7 @@
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18832598398030231</v>
+        <v>0.82267161919706533</v>
       </c>
       <c r="B299" s="2">
         <v>216</v>
@@ -9085,7 +9085,7 @@
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9861174854834025E-2</v>
+        <v>0.14125008520166271</v>
       </c>
       <c r="B300" s="2">
         <v>293</v>
@@ -9109,7 +9109,7 @@
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26271605954197919</v>
+        <v>4.822219955920759E-2</v>
       </c>
       <c r="B301" s="2">
         <v>451</v>
@@ -9130,7 +9130,7 @@
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3229713610692628E-2</v>
+        <v>0.71790999254046417</v>
       </c>
       <c r="B302" s="2">
         <v>247</v>
@@ -9154,7 +9154,7 @@
     <row r="303" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56509944699138637</v>
+        <v>0.39317326704768862</v>
       </c>
       <c r="B303" s="2">
         <v>171</v>
@@ -9178,7 +9178,7 @@
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33561266680158264</v>
+        <v>0.65100824670449975</v>
       </c>
       <c r="B304" s="2">
         <v>330</v>
@@ -9323,7 +9323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+    <sheetView topLeftCell="A290" workbookViewId="0">
       <selection activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
